--- a/sample_questions.xlsx
+++ b/sample_questions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\consultancy\safeExam\Admin\backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vaibhavi.Patel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>question</t>
   </si>
@@ -39,14 +39,195 @@
     <t>answer</t>
   </si>
   <si>
-    <t>imageURL</t>
+    <t>Instruction:</t>
+  </si>
+  <si>
+    <t>imageURL (leave it blank if no image)</t>
+  </si>
+  <si>
+    <t>https://safe-exam-admin-nuv.vercel.app/uploadImage.html</t>
+  </si>
+  <si>
+    <t>If any question contains image,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upload your image here to get the imageURL </t>
+  </si>
+  <si>
+    <t>Match the columns according to the error recovery strategies</t>
+  </si>
+  <si>
+    <t>P-X, Q-Y, R-Z, S-W</t>
+  </si>
+  <si>
+    <t>P-Z, Q-X, R-Y, S-W</t>
+  </si>
+  <si>
+    <t>P-X, Q-Z, R-W, S-Y</t>
+  </si>
+  <si>
+    <t>P-W, Q-X, R-Y, S-Z</t>
+  </si>
+  <si>
+    <t>Macro expansion is done by the lexical analyzer phase.</t>
+  </si>
+  <si>
+    <t>Which one of the following equivalent one is used in Lexical Analysis?</t>
+  </si>
+  <si>
+    <t>(a) Regular Expression</t>
+  </si>
+  <si>
+    <t>(b) Push down automata</t>
+  </si>
+  <si>
+    <t>Both (a) and (b)</t>
+  </si>
+  <si>
+    <t>Neither (a) nor (b)</t>
+  </si>
+  <si>
+    <t>In some programming languages, an identifier is permitted to be a letter followed by any number of letters or digits. If L and D denote the sets of letters and digits respectively, which expression defines an identifier?</t>
+  </si>
+  <si>
+    <t>(LUD)^+</t>
+  </si>
+  <si>
+    <t>L.(LUD)*</t>
+  </si>
+  <si>
+    <t>(L.D)*</t>
+  </si>
+  <si>
+    <t>L.(L.D)*</t>
+  </si>
+  <si>
+    <t>Which of the following errors that are detected in the lexical analysis phase?</t>
+  </si>
+  <si>
+    <t>Numeric literals that are too long.</t>
+  </si>
+  <si>
+    <t>Identifies that are too big</t>
+  </si>
+  <si>
+    <t>Input characters that are not in the language.</t>
+  </si>
+  <si>
+    <t>All of the mentioned.</t>
+  </si>
+  <si>
+    <t>Lexical analysis removes white spaces and not the comments.</t>
+  </si>
+  <si>
+    <t>The number of Tokens in the given c code segment is_____</t>
+  </si>
+  <si>
+    <t>Lexical error</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What is the primary purpose of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bootstrapping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in compiler design?</t>
+    </r>
+  </si>
+  <si>
+    <t>To optimize the execution speed of a compiler</t>
+  </si>
+  <si>
+    <t>To develop a compiler for a new programming language using an existing compiler</t>
+  </si>
+  <si>
+    <t>To debug errors in a compiler using automated tools</t>
+  </si>
+  <si>
+    <t>To generate machine code directly from a high-level language without an intermediate step</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What is the primary function of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lexical analyzer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in a compiler?</t>
+    </r>
+  </si>
+  <si>
+    <t>To check the syntax of the program</t>
+  </si>
+  <si>
+    <t>To generate intermediate code for optimization</t>
+  </si>
+  <si>
+    <t>To convert a sequence of characters into tokens</t>
+  </si>
+  <si>
+    <t>To generate the final machine code</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/xq7Y3zCz/img1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/MDG4S4Rm/img3.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/jk1XdnBH/img4.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,16 +250,88 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF0F243E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -101,6 +354,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -109,12 +442,65 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -420,18 +806,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="6" width="9.140625" style="7"/>
+    <col min="7" max="7" width="34.7109375" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,13 +838,282 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="K3" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G2" s="2"/>
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="K4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="16"/>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="19"/>
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="K6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="19"/>
+    </row>
+    <row r="7" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="22"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="6">
+        <v>20</v>
+      </c>
+      <c r="C8" s="6">
+        <v>19</v>
+      </c>
+      <c r="D8" s="6">
+        <v>26</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="6">
+        <v>20</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:Q5"/>
+    <mergeCell ref="K8:Q9"/>
+    <mergeCell ref="K6:Q7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K8" r:id="rId1"/>
+    <hyperlink ref="G9" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/sample_questions.xlsx
+++ b/sample_questions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\consultancy\safeExam\Admin\backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\consultancy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>question</t>
   </si>
@@ -221,9 +221,6 @@
   </si>
   <si>
     <t>https://i.ibb.co/jk1XdnBH/img4.jpg</t>
-  </si>
-  <si>
-    <t>marks</t>
   </si>
 </sst>
 </file>
@@ -809,19 +806,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="9.140625" style="6"/>
-    <col min="8" max="8" width="34.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="6" width="9.140625" style="6"/>
+    <col min="7" max="7" width="34.7109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -841,13 +838,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -866,14 +860,11 @@
       <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -888,19 +879,16 @@
       <c r="F3" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="L3" s="8" t="s">
+      <c r="G3" s="5"/>
+      <c r="K3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -919,21 +907,18 @@
       <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="3">
-        <v>2</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="L4" s="9" t="s">
+      <c r="G4" s="5"/>
+      <c r="K4" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="11"/>
+      <c r="Q4" s="11"/>
     </row>
-    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -952,19 +937,16 @@
       <c r="F5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="L5" s="12"/>
+      <c r="G5" s="5"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="13"/>
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="14"/>
+      <c r="Q5" s="14"/>
     </row>
-    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -983,21 +965,18 @@
       <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="3">
-        <v>3</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="L6" s="12" t="s">
+      <c r="G6" s="5"/>
+      <c r="K6" s="12" t="s">
         <v>10</v>
       </c>
+      <c r="L6" s="13"/>
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="14"/>
+      <c r="Q6" s="14"/>
     </row>
-    <row r="7" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -1012,19 +991,16 @@
       <c r="F7" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="L7" s="21"/>
+      <c r="G7" s="5"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="22"/>
       <c r="M7" s="22"/>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="23"/>
+      <c r="Q7" s="23"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -1043,23 +1019,20 @@
       <c r="F8" s="5">
         <v>20</v>
       </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="K8" s="15" t="s">
         <v>8</v>
       </c>
+      <c r="L8" s="16"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="17"/>
+      <c r="Q8" s="17"/>
     </row>
-    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>35</v>
@@ -1076,21 +1049,18 @@
       <c r="F9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="20"/>
+      <c r="Q9" s="20"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
@@ -1109,12 +1079,9 @@
       <c r="F10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5"/>
+      <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
@@ -1133,21 +1100,18 @@
       <c r="F11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5"/>
+      <c r="G11" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:R5"/>
-    <mergeCell ref="L8:R9"/>
-    <mergeCell ref="L6:R7"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:Q5"/>
+    <mergeCell ref="K8:Q9"/>
+    <mergeCell ref="K6:Q7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="L8" r:id="rId1"/>
-    <hyperlink ref="H9" r:id="rId2"/>
+    <hyperlink ref="K8" r:id="rId1"/>
+    <hyperlink ref="G9" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>

--- a/sample_questions.xlsx
+++ b/sample_questions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\consultancy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vaibhavi.Patel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>question</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Instruction:</t>
   </si>
   <si>
-    <t>imageURL (leave it blank if no image)</t>
-  </si>
-  <si>
     <t>https://safe-exam-admin-nuv.vercel.app/uploadImage.html</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>P-W, Q-X, R-Y, S-Z</t>
   </si>
   <si>
-    <t>Macro expansion is done by the lexical analyzer phase.</t>
-  </si>
-  <si>
     <t>Which one of the following equivalent one is used in Lexical Analysis?</t>
   </si>
   <si>
@@ -85,9 +79,6 @@
   </si>
   <si>
     <t>Neither (a) nor (b)</t>
-  </si>
-  <si>
-    <t>In some programming languages, an identifier is permitted to be a letter followed by any number of letters or digits. If L and D denote the sets of letters and digits respectively, which expression defines an identifier?</t>
   </si>
   <si>
     <t>(LUD)^+</t>
@@ -221,6 +212,27 @@
   </si>
   <si>
     <t>https://i.ibb.co/jk1XdnBH/img4.jpg</t>
+  </si>
+  <si>
+    <t>marks</t>
+  </si>
+  <si>
+    <t>imageURL</t>
+  </si>
+  <si>
+    <t>leave it blank if no image</t>
+  </si>
+  <si>
+    <t>In some programming languages, an identifier is permitted to be a letter followed by any number of letters or digits. &lt;br&gt;If L and D denote the sets of letters and digits respectively, which expression defines an identifier?</t>
+  </si>
+  <si>
+    <t>Macro expansion is done by  the lexical analyzer phase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> True</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> False</t>
   </si>
 </sst>
 </file>
@@ -442,7 +454,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -453,6 +465,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -806,19 +821,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="B7" sqref="B7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="9.140625" style="6"/>
-    <col min="7" max="7" width="34.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="7" width="9.140625" style="6"/>
+    <col min="8" max="8" width="34.7109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -838,171 +853,195 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>49</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>49</v>
+        <v>13</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="b">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="K3" s="8" t="s">
+      <c r="F3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="L3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="2"/>
+      <c r="M3" s="9"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="L4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="12"/>
+    </row>
+    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="K4" s="9" t="s">
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="15"/>
+    </row>
+    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="L6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="11"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="15"/>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="14"/>
-    </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="3" t="s">
+    <row r="7" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="K6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="14"/>
-    </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="b">
-        <v>0</v>
+      <c r="B7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="K7" s="21"/>
+      <c r="F7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5"/>
       <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
       <c r="Q7" s="23"/>
+      <c r="R7" s="24"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B8" s="5">
         <v>20</v>
@@ -1014,104 +1053,116 @@
         <v>26</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F8" s="5">
         <v>20</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
       <c r="Q8" s="17"/>
+      <c r="R8" s="18"/>
     </row>
-    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="F9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="19"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="21"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="20"/>
+      <c r="D10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="5" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="F11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:Q5"/>
-    <mergeCell ref="K8:Q9"/>
-    <mergeCell ref="K6:Q7"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:R5"/>
+    <mergeCell ref="L8:R9"/>
+    <mergeCell ref="L6:R7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K8" r:id="rId1"/>
-    <hyperlink ref="G9" r:id="rId2"/>
+    <hyperlink ref="L8" r:id="rId1"/>
+    <hyperlink ref="H9" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
